--- a/data/trans_bre/P1001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1291892685432576</v>
+        <v>-0.1053429321392455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.57468486857118</v>
+        <v>7.387156467208393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.01148858781099</v>
+        <v>10.15708054396675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.518809403862081</v>
+        <v>7.716101045797208</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.007068518050398021</v>
+        <v>-0.0130797814134373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4980378568668724</v>
+        <v>0.4723858162598634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9001740899711976</v>
+        <v>0.9348206380928368</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6466656948777851</v>
+        <v>0.5514763247285553</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.198597028554178</v>
+        <v>5.430200358581722</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.08080612698933</v>
+        <v>13.9180401579621</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.21039923883338</v>
+        <v>17.19418234364628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.8690596360814</v>
+        <v>14.67065705363598</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5464191358626174</v>
+        <v>0.5652722959971177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.220368765784297</v>
+        <v>1.201660972595833</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.208368646301174</v>
+        <v>2.278781433492149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.597722814156964</v>
+        <v>1.576982456071174</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.868925598701844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.572147149370261</v>
+        <v>3.572147149370262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9482434782037412</v>
@@ -749,7 +749,7 @@
         <v>0.4956930939473946</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6703636466905324</v>
+        <v>0.6703636466905326</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.731582198102804</v>
+        <v>1.873593658047172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.462124404759897</v>
+        <v>3.475171055022936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.053040800111704</v>
+        <v>1.39434725877417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.04824709977876</v>
+        <v>1.883931586521322</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.406499751970703</v>
+        <v>0.42895123053183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6382927813535842</v>
+        <v>0.6534033816823905</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.146852950233185</v>
+        <v>0.2092456104576482</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3137783967885114</v>
+        <v>0.3058435581920924</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.995298118293651</v>
+        <v>5.05298868533649</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.063985793006355</v>
+        <v>7.156736110588915</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.684683836944578</v>
+        <v>4.645550920130827</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.097410344328857</v>
+        <v>4.981096685080579</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.722873197794563</v>
+        <v>1.742242152453157</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.713287671227606</v>
+        <v>1.807148080716453</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8907523347526525</v>
+        <v>0.9460546940183321</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.130930460750534</v>
+        <v>1.086622073189556</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.150914544702287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.628074083508912</v>
+        <v>3.628074083508911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.420600611048476</v>
@@ -849,7 +849,7 @@
         <v>1.059039263059879</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8959494366319244</v>
+        <v>0.8959494366319241</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.069105348205893</v>
+        <v>-0.95698073609096</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.693392349619628</v>
+        <v>-2.899299724323801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6722604395511599</v>
+        <v>0.4306944201277895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9851213329236528</v>
+        <v>1.045286206716021</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2103881519397638</v>
+        <v>-0.1942281268697557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4345995151378289</v>
+        <v>-0.4626467902438366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05231785684865621</v>
+        <v>0.08903449897817502</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1736708616860959</v>
+        <v>0.1811691120788629</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.537558554055583</v>
+        <v>4.558753776906799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.675309581695943</v>
+        <v>3.423426322445401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.639480305573924</v>
+        <v>5.621621188806042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.08606674244319</v>
+        <v>6.058466090063358</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.688387966820563</v>
+        <v>1.544084804325001</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.295544008915455</v>
+        <v>1.134447305289277</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.827009936092038</v>
+        <v>2.726545203051387</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.082767580839161</v>
+        <v>2.008303934868679</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.139770871485513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.688075397731621</v>
+        <v>5.688075397731625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5567431162707636</v>
@@ -949,7 +949,7 @@
         <v>1.006811223791915</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9432221938522544</v>
+        <v>0.943222193852255</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.183336130080215</v>
+        <v>2.00772480703452</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.105517657970083</v>
+        <v>5.878408549873231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.683964302468834</v>
+        <v>4.689012217760912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.383175872635805</v>
+        <v>4.358703364399184</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3255947356206387</v>
+        <v>0.2976245173389047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7798692320466994</v>
+        <v>0.7600827986544818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6899971972086789</v>
+        <v>0.7204382762886236</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6495281790000944</v>
+        <v>0.6546241815248695</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.706651533429194</v>
+        <v>4.714833252232508</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.110408258910068</v>
+        <v>8.981624365915458</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.630854965275486</v>
+        <v>7.563346132159432</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.892544360496657</v>
+        <v>6.973437442646049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8569524449237516</v>
+        <v>0.8606825940607949</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.428158514396928</v>
+        <v>1.393126164376884</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.387419049420634</v>
+        <v>1.387348293710934</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.284695008835524</v>
+        <v>1.294773107816008</v>
       </c>
     </row>
     <row r="16">
